--- a/biology/Botanique/Dionée/Dionée.xlsx
+++ b/biology/Botanique/Dionée/Dionée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dion%C3%A9e</t>
+          <t>Dionée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Dionée est une revue trimestrielle de 40 pages couleur au format A5, qui paraît en principe[réf. nécessaire] aux mois de mars, juin, septembre et décembre.
-Elle est la publication officielle de l'association DIONÉE[1], Association Francophone des Amateurs de Plantes Carnivores[2]. 
+Elle est la publication officielle de l'association DIONÉE, Association Francophone des Amateurs de Plantes Carnivores. 
 La revue publie des articles d'horticulture générale, des reportages et des études scientifiques à propos des plantes carnivores.
-Cette revue a été créée en 1984[3] et elle est passée en tout couleur, à partir du nº 68 (hiver 2007)[4].
-Son siège social est située au jardin botanique du parc de la Tête d'Or à Lyon[5].
+Cette revue a été créée en 1984 et elle est passée en tout couleur, à partir du nº 68 (hiver 2007).
+Son siège social est située au jardin botanique du parc de la Tête d'Or à Lyon.
 </t>
         </is>
       </c>
